--- a/individual_case_outputs/avey/377.xlsx
+++ b/individual_case_outputs/avey/377.xlsx
@@ -612,12 +612,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>prostate cancer</t>
+          <t>acute prostatitis</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>prostate cancer</t>
+          <t>benign prostatic hyperplasia</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -831,7 +831,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>prostate cancer</t>
+          <t>acute prostatitis</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
